--- a/medicine/Psychotrope/Malègue_44-53/Malègue_44-53.xlsx
+++ b/medicine/Psychotrope/Malègue_44-53/Malègue_44-53.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mal%C3%A8gue_44-53</t>
+          <t>Malègue_44-53</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le malègue 44-53[1], abrégé en 44-53 M, est un cépage créé pour servir de porte-greffe à la vigne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le malègue 44-53, abrégé en 44-53 M, est un cépage créé pour servir de porte-greffe à la vigne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mal%C3%A8gue_44-53</t>
+          <t>Malègue_44-53</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 44-53 M est issu de l'hybridation de Vitis riparia et de malègue 144 réalisé en 1900[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 44-53 M est issu de l'hybridation de Vitis riparia et de malègue 144 réalisé en 1900.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mal%C3%A8gue_44-53</t>
+          <t>Malègue_44-53</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,41 +556,12 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les inflorescences sont mâles[2]. Elles ne donnent donc pas de raisin.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont mâles. Elles ne donnent donc pas de raisin.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mal%C3%A8gue_44-53</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mal%C3%A8gue_44-53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Aptitudes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Adaptation au terroir
-Aptitudes au greffage</t>
         </is>
       </c>
     </row>
